--- a/pred_ohlcv/54_21/2020-01-26 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 TMTG ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>-8866276.4066</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-8863598.876600001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-8858430.797600001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8853251.262600001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8843741.8859</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-8843861.8859</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-8587092.721459581</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-8532995.437695442</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-8496356.203895442</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-8496356.203895442</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-8496036.203895442</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-8496154.094895443</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-8643089.541095443</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-8646674.635095444</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-9032254.863495443</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-9030749.446495444</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-9033305.798495444</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-9049566.895095441</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-9053679.027095441</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-9052452.044095442</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-9049325.475095442</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-9049325.475095442</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-9049325.475095442</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-9050712.652095441</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-9052768.98909544</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-9052390.264095441</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-9053842.253995441</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-9051539.775995441</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-9051117.22799544</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-9049536.05499544</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-9046796.30699544</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-9054263.46599544</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-9063455.789995439</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-9057178.007295441</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-9065432.216295442</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-9054754.827295441</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-9054874.798295442</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-9056409.611295441</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-9053697.136295442</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-9054043.619295441</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-9055944.87629544</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-9053242.883495441</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-9056565.456495441</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-9057466.155495441</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-9059350.47049544</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-9055749.784495439</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-9053107.92549544</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-9057171.04049544</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-9062094.169495441</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-9063214.037495442</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-9060955.504495442</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-9057289.752495442</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-9056120.463495441</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-9053969.168495441</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-9057434.920495441</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-9058200.250495441</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-9056774.16549544</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-9059611.147495441</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-9060090.618495442</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-9058768.953495443</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-9056387.027495442</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-9057412.128095442</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-9057855.487095442</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-9059226.491095442</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-9056791.649095442</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-9422888.064395443</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-9425100.645395443</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-9428232.292395443</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-9428232.292395443</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-9645596.702395435</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-9242445.511627788</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-9242960.193627788</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-9254148.218927786</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-9258742.987927785</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-9259922.736927785</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-9274644.006927785</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-9256735.730927784</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-9256433.824927785</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-9312782.996027784</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-9096870.761527782</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-9101607.033527782</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-9066738.841527782</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-9140212.974527784</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-9135881.119527783</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-9699569.990527779</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-9691944.615527779</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-9682545.88152778</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-9688697.99342778</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-9702531.431427779</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-9739504.94362778</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-9779083.02262778</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-15314634.70751513</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-15384852.20151513</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-15379556.10251513</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-15411426.28331513</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-15378541.98211513</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-15405100.86611513</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-15405100.86611513</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-15411345.50711513</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-15427122.81411513</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-15453603.84611513</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-15418008.58611513</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-15549274.35961513</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-15545221.51361513</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-15555216.19861513</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-15574523.54561513</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-15895736.19861513</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-15093454.54411513</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-15072316.26711513</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-15098552.29911513</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-15094803.80811513</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-15123326.58611513</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-15125328.22011513</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-15114559.75411513</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-15123031.31311513</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-15122500.64811513</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-15133415.94311513</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-15107872.20811513</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-15138729.59611513</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-15105172.70411513</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-15106066.50211513</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-15103426.58211513</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-30825722.05641514</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-30732148.75711514</v>
       </c>
       <c r="H915">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-30727919.25611514</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-30709677.08711514</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-30674038.06011514</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-30674038.06011514</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-30622616.14711514</v>
       </c>
       <c r="H920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-30631536.79611515</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-30621351.06311515</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-30587999.69841515</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-30598487.02601515</v>
       </c>
       <c r="H961">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-30571511.43651515</v>
       </c>
       <c r="H962">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-30574724.90991515</v>
       </c>
       <c r="H968">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-30549082.18691515</v>
       </c>
       <c r="H969">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-30673372.11391515</v>
       </c>
       <c r="H970">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-30662254.41891515</v>
       </c>
       <c r="H972">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-30430316.99161515</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-30366233.82271514</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-31066634.56031513</v>
       </c>
       <c r="H1021">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-31900165.56551513</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-31900165.56551513</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-31833619.96651513</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-31832224.62351513</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-31832224.62351513</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-31795917.32851513</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-31820647.63351513</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-31820647.63351513</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-31834297.33951513</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-31788513.15251513</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-31788513.15251513</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-31743950.98851513</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-31743950.98851513</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-31735726.45771706</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-31757984.78271706</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-31814189.45371706</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-31809400.88571706</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-31801507.47471707</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-31801507.47471707</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-31801507.47471707</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-31712955.39371707</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-31661978.33721707</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-31426993.74468369</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-33367618.19785032</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-33377173.37425032</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-33361580.87925032</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-33307722.25025032</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-33440118.26325032</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-33440118.26325032</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-33455280.38425032</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-33377502.59425032</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-33377502.59425032</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-33553590.81005032</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-33511857.90205032</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-33418418.51005032</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-33531349.04005032</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-33531349.04005032</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-33472903.27105032</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-33472903.27105032</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-33520497.38205032</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-33418775.48605032</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-33415863.11305032</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-33410349.76005032</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-33428741.57805032</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-33428741.57805032</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-33449251.41205031</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-33453623.35705031</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-33406694.94405032</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-33328508.65505031</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-33322591.31005032</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-33346071.08005032</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-33302590.35805032</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-33536741.46075032</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-33600008.55175032</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-33592989.47075032</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-33584977.64875032</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-33622190.85875032</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-33601100.54075032</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-33601100.54075032</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-33548712.56575032</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-33548712.56575032</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-33614617.62175032</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-26 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 TMTG ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>-8866276.4066</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-8863598.876600001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-8858430.797600001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8853251.262600001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8843741.8859</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-8843861.8859</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-8587092.721459581</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-9049566.895095441</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-9053679.027095441</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-9052452.044095442</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-9049325.475095442</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-9065432.216295442</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-9054754.827295441</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-9054874.798295442</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-9056409.611295441</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-9053697.136295442</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-9056565.456495441</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-9057466.155495441</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-9059350.47049544</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-9055749.784495439</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-9053107.92549544</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-9057171.04049544</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-9062094.169495441</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-9063214.037495442</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-9060955.504495442</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-9057289.752495442</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-9056120.463495441</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-9053969.168495441</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-9057434.920495441</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-9058200.250495441</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-9056774.16549544</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-9059611.147495441</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-9060090.618495442</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-9058768.953495443</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-9056387.027495442</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-9057412.128095442</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-9057855.487095442</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-9059226.491095442</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-9056791.649095442</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-9422888.064395443</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-9425100.645395443</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-9428232.292395443</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-9428232.292395443</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-9645596.702395435</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-9242445.511627788</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-9242960.193627788</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-9254148.218927786</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-9258742.987927785</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-9259922.736927785</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-9274644.006927785</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-9256735.730927784</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-9256433.824927785</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-9312782.996027784</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-9096870.761527782</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-9101607.033527782</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-9066738.841527782</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-9140212.974527784</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-9135881.119527783</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-9699569.990527779</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-9691944.615527779</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-9682545.88152778</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-9688697.99342778</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-9702531.431427779</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-9739504.94362778</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-9779083.02262778</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-15314634.70751513</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-15384852.20151513</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-15379556.10251513</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-15411426.28331513</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-15378541.98211513</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-15405100.86611513</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-15405100.86611513</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-15411345.50711513</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-15427122.81411513</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-15453603.84611513</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-15418008.58611513</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-15549274.35961513</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-15545221.51361513</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-15555216.19861513</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-15574523.54561513</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-15895736.19861513</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-15093454.54411513</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-15072316.26711513</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-15098552.29911513</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-15094803.80811513</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-15123326.58611513</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-15125328.22011513</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-15114559.75411513</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-15123031.31311513</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-15122500.64811513</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-15133415.94311513</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-15107872.20811513</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-15138729.59611513</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-15105172.70411513</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-15106066.50211513</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-15103426.58211513</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-30825722.05641514</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-30732148.75711514</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-30727919.25611514</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-30709677.08711514</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-30674038.06011514</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-30674038.06011514</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-30622616.14711514</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-30631536.79611515</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-30621351.06311515</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-30587999.69841515</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-30626370.78441514</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-30557443.37581515</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-30581885.00981515</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-30574691.81681515</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-30549915.76981515</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-30484188.62581515</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-30565123.09781515</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-30551106.73401515</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-30551106.73401515</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-30571789.53101515</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-30571789.53101515</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-30598487.02601515</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-30598487.02601515</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-30571511.43651515</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-30547854.00351515</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-30637901.83721515</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-30637901.83721515</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-30644731.79291515</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-30617776.20791515</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-30574724.90991515</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-30549082.18691515</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-30673372.11391515</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-30673372.11391515</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-30662254.41891515</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-30629834.17291515</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-30711835.64491515</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-30656122.94291515</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-30661001.81191515</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-30661001.81191515</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-30661001.81191515</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-30366233.82271514</v>
       </c>
       <c r="H980">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-31066634.56031513</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-31066634.56031513</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-31117657.51691513</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-31117657.51691513</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-31669834.81651513</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-31666531.68051513</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-31679748.65051513</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-31692546.05151513</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-31726680.64051513</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-31682583.89251513</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-31681577.12151513</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-31691424.16551513</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-31671286.97871513</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-31684101.06471513</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-31681363.96771513</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-31704089.66271513</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-31704089.66271513</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-31704089.66271513</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-31700445.27471513</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-31700445.27471513</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-31741978.63271513</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-31738949.30471513</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-31751621.23771513</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-31763000.35471513</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-31796055.39771513</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-31840365.85671513</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-31835953.66771513</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-31917699.78971513</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-31746837.79271513</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-31863208.10831513</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-31863208.10831513</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-31842612.55131513</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-31814525.41631513</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-31814525.41631513</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-31901176.96151513</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-31901176.96151513</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-31891419.13751513</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-31918598.30351513</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-31820647.63351513</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-31743950.98851513</v>
       </c>
       <c r="H1111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-31735726.45771706</v>
       </c>
       <c r="H1118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-31757984.78271706</v>
       </c>
       <c r="H1119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-31814189.45371706</v>
       </c>
       <c r="H1120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-31809400.88571706</v>
       </c>
       <c r="H1121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-31801507.47471707</v>
       </c>
       <c r="H1122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-31801507.47471707</v>
       </c>
       <c r="H1123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-31801507.47471707</v>
       </c>
       <c r="H1124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-31712955.39371707</v>
       </c>
       <c r="H1125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-31661978.33721707</v>
       </c>
       <c r="H1126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-31426993.74468369</v>
       </c>
       <c r="H1127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-33367618.19785032</v>
       </c>
       <c r="H1135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-33377173.37425032</v>
       </c>
       <c r="H1136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-33361580.87925032</v>
       </c>
       <c r="H1138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-33307722.25025032</v>
       </c>
       <c r="H1139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-33440118.26325032</v>
       </c>
       <c r="H1141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-33377502.59425032</v>
       </c>
       <c r="H1145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-33377502.59425032</v>
       </c>
       <c r="H1146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-33553590.81005032</v>
       </c>
       <c r="H1147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-33511857.90205032</v>
       </c>
       <c r="H1148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-33600008.55175032</v>
       </c>
       <c r="H1170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-33584977.64875032</v>
       </c>
       <c r="H1172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-33601100.54075032</v>
       </c>
       <c r="H1178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-33548712.56575032</v>
       </c>
       <c r="H1179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-33548712.56575032</v>
       </c>
       <c r="H1180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-33614617.62175032</v>
       </c>
       <c r="H1181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
